--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H2">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I2">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J2">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N2">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O2">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P2">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q2">
-        <v>37.33319534687499</v>
+        <v>64.30960327858499</v>
       </c>
       <c r="R2">
-        <v>335.998758121875</v>
+        <v>578.786429507265</v>
       </c>
       <c r="S2">
-        <v>0.04806105746646026</v>
+        <v>0.1205506810541237</v>
       </c>
       <c r="T2">
-        <v>0.04806105746646026</v>
+        <v>0.1205506810541237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H3">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I3">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J3">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.854032</v>
       </c>
       <c r="O3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q3">
-        <v>52.22837306333333</v>
+        <v>40.63291580077333</v>
       </c>
       <c r="R3">
-        <v>470.05535757</v>
+        <v>365.6962422069599</v>
       </c>
       <c r="S3">
-        <v>0.06723643170250902</v>
+        <v>0.07616787265470851</v>
       </c>
       <c r="T3">
-        <v>0.06723643170250901</v>
+        <v>0.07616787265470852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H4">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I4">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J4">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N4">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q4">
-        <v>42.69679009583332</v>
+        <v>18.08829206587667</v>
       </c>
       <c r="R4">
-        <v>384.2711108624999</v>
+        <v>162.79462859289</v>
       </c>
       <c r="S4">
-        <v>0.05496590536553162</v>
+        <v>0.03390715875203441</v>
       </c>
       <c r="T4">
-        <v>0.05496590536553163</v>
+        <v>0.03390715875203441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H5">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I5">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J5">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N5">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q5">
-        <v>74.86466137479165</v>
+        <v>32.89100679047166</v>
       </c>
       <c r="R5">
-        <v>673.7819523731249</v>
+        <v>296.0190611142449</v>
       </c>
       <c r="S5">
-        <v>0.09637735958869989</v>
+        <v>0.06165538375304385</v>
       </c>
       <c r="T5">
-        <v>0.09637735958869989</v>
+        <v>0.06165538375304385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H6">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I6">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J6">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N6">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q6">
-        <v>88.480575180625</v>
+        <v>72.33086802162666</v>
       </c>
       <c r="R6">
-        <v>796.325176625625</v>
+        <v>650.9778121946399</v>
       </c>
       <c r="S6">
-        <v>0.113905867657734</v>
+        <v>0.135586832396875</v>
       </c>
       <c r="T6">
-        <v>0.113905867657734</v>
+        <v>0.135586832396875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H7">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I7">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J7">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N7">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O7">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P7">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q7">
-        <v>39.22720919458332</v>
+        <v>25.71996388198999</v>
       </c>
       <c r="R7">
-        <v>353.04488275125</v>
+        <v>231.4796749379099</v>
       </c>
       <c r="S7">
-        <v>0.05049932473855438</v>
+        <v>0.04821300403969118</v>
       </c>
       <c r="T7">
-        <v>0.05049932473855438</v>
+        <v>0.04821300403969119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.143341</v>
       </c>
       <c r="I8">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J8">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N8">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O8">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P8">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q8">
-        <v>0.05526106122166667</v>
+        <v>0.122356880987</v>
       </c>
       <c r="R8">
-        <v>0.497349550995</v>
+        <v>1.101211928883</v>
       </c>
       <c r="S8">
-        <v>7.114057648575788E-05</v>
+        <v>0.0002293624059651602</v>
       </c>
       <c r="T8">
-        <v>7.114057648575785E-05</v>
+        <v>0.0002293624059651601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.143341</v>
       </c>
       <c r="I9">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J9">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.854032</v>
       </c>
       <c r="O9">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P9">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q9">
         <v>0.07730908899022222</v>
@@ -1013,10 +1013,10 @@
         <v>0.695781800912</v>
       </c>
       <c r="S9">
-        <v>9.952420450798018E-05</v>
+        <v>0.000144918687945764</v>
       </c>
       <c r="T9">
-        <v>9.952420450798015E-05</v>
+        <v>0.000144918687945764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.143341</v>
       </c>
       <c r="I10">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J10">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N10">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O10">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P10">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q10">
-        <v>0.06320032104222222</v>
+        <v>0.03441518663977778</v>
       </c>
       <c r="R10">
-        <v>0.56880288938</v>
+        <v>0.309736679758</v>
       </c>
       <c r="S10">
-        <v>8.136121843541137E-05</v>
+        <v>6.451251409618826E-05</v>
       </c>
       <c r="T10">
-        <v>8.136121843541136E-05</v>
+        <v>6.451251409618826E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.143341</v>
       </c>
       <c r="I11">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J11">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N11">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O11">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P11">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q11">
-        <v>0.1108156051774444</v>
+        <v>0.06257916078211111</v>
       </c>
       <c r="R11">
-        <v>0.9973404465969999</v>
+        <v>0.563212447039</v>
       </c>
       <c r="S11">
-        <v>0.0001426589692933835</v>
+        <v>0.0001173069039067005</v>
       </c>
       <c r="T11">
-        <v>0.0001426589692933835</v>
+        <v>0.0001173069039067005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.143341</v>
       </c>
       <c r="I12">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J12">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N12">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O12">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P12">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q12">
-        <v>0.1309700505556667</v>
+        <v>0.1376183176231111</v>
       </c>
       <c r="R12">
-        <v>1.178730455001</v>
+        <v>1.238564858608</v>
       </c>
       <c r="S12">
-        <v>0.00016860488548211</v>
+        <v>0.0002579705218071715</v>
       </c>
       <c r="T12">
-        <v>0.00016860488548211</v>
+        <v>0.0002579705218071714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.143341</v>
       </c>
       <c r="I13">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J13">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N13">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O13">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P13">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q13">
-        <v>0.05806460413355555</v>
+        <v>0.04893537511133333</v>
       </c>
       <c r="R13">
-        <v>0.522581437202</v>
+        <v>0.440418376002</v>
       </c>
       <c r="S13">
-        <v>7.474973010215888E-05</v>
+        <v>9.173113340095301E-05</v>
       </c>
       <c r="T13">
-        <v>7.474973010215886E-05</v>
+        <v>9.173113340095302E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H14">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I14">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J14">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N14">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O14">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P14">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q14">
-        <v>1.685082435658334</v>
+        <v>5.104038062839001</v>
       </c>
       <c r="R14">
-        <v>15.165741920925</v>
+        <v>45.936342565551</v>
       </c>
       <c r="S14">
-        <v>0.002169298476152995</v>
+        <v>0.009567704249954593</v>
       </c>
       <c r="T14">
-        <v>0.002169298476152994</v>
+        <v>0.009567704249954593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H15">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I15">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J15">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.854032</v>
       </c>
       <c r="O15">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P15">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q15">
-        <v>2.357395697697778</v>
+        <v>3.224898588673778</v>
       </c>
       <c r="R15">
-        <v>21.21656127928</v>
+        <v>29.024087298064</v>
       </c>
       <c r="S15">
-        <v>0.003034803987323921</v>
+        <v>0.006045189231085863</v>
       </c>
       <c r="T15">
-        <v>0.003034803987323921</v>
+        <v>0.006045189231085863</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H16">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I16">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J16">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N16">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O16">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P16">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q16">
-        <v>1.927175276077778</v>
+        <v>1.435607226436223</v>
       </c>
       <c r="R16">
-        <v>17.3445774847</v>
+        <v>12.920465037926</v>
       </c>
       <c r="S16">
-        <v>0.002480957786520368</v>
+        <v>0.002691097752903383</v>
       </c>
       <c r="T16">
-        <v>0.002480957786520368</v>
+        <v>0.002691097752903383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H17">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I17">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J17">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N17">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O17">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P17">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q17">
-        <v>3.379114076950556</v>
+        <v>2.610449171275889</v>
       </c>
       <c r="R17">
-        <v>30.412026692555</v>
+        <v>23.494042541483</v>
       </c>
       <c r="S17">
-        <v>0.004350117752555022</v>
+        <v>0.004893381538854445</v>
       </c>
       <c r="T17">
-        <v>0.004350117752555022</v>
+        <v>0.004893381538854445</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H18">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I18">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J18">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N18">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O18">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P18">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q18">
-        <v>3.993686094868334</v>
+        <v>5.74065901015289</v>
       </c>
       <c r="R18">
-        <v>35.943174853815</v>
+        <v>51.66593109137601</v>
       </c>
       <c r="S18">
-        <v>0.005141289812594003</v>
+        <v>0.0107610732782093</v>
       </c>
       <c r="T18">
-        <v>0.005141289812594003</v>
+        <v>0.0107610732782093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H19">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I19">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J19">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N19">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O19">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P19">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q19">
-        <v>1.770571219514445</v>
+        <v>2.041307486532667</v>
       </c>
       <c r="R19">
-        <v>15.93514097563</v>
+        <v>18.371767378794</v>
       </c>
       <c r="S19">
-        <v>0.002279352847751012</v>
+        <v>0.003826504832822362</v>
       </c>
       <c r="T19">
-        <v>0.002279352847751011</v>
+        <v>0.003826504832822362</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H20">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I20">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J20">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N20">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O20">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P20">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q20">
-        <v>0.4737594802116668</v>
+        <v>0.3786353105970001</v>
       </c>
       <c r="R20">
-        <v>4.263835321905001</v>
+        <v>3.407717795373001</v>
       </c>
       <c r="S20">
-        <v>0.0006098964043172691</v>
+        <v>0.0007097656063259784</v>
       </c>
       <c r="T20">
-        <v>0.0006098964043172689</v>
+        <v>0.0007097656063259784</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H21">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I21">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J21">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.854032</v>
       </c>
       <c r="O21">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P21">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q21">
-        <v>0.6627797766808889</v>
+        <v>0.2392342031413334</v>
       </c>
       <c r="R21">
-        <v>5.965017990128</v>
+        <v>2.153107828272</v>
       </c>
       <c r="S21">
-        <v>0.0008532325357822408</v>
+        <v>0.0004484531803935406</v>
       </c>
       <c r="T21">
-        <v>0.0008532325357822405</v>
+        <v>0.0004484531803935407</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H22">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I22">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J22">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N22">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O22">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P22">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q22">
-        <v>0.5418236744688889</v>
+        <v>0.1064983413886667</v>
       </c>
       <c r="R22">
-        <v>4.87641307022</v>
+        <v>0.9584850724980001</v>
       </c>
       <c r="S22">
-        <v>0.0006975191518804103</v>
+        <v>0.0001996349989895447</v>
       </c>
       <c r="T22">
-        <v>0.0006975191518804102</v>
+        <v>0.0001996349989895447</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H23">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I23">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J23">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N23">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O23">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P23">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q23">
-        <v>0.9500350219047778</v>
+        <v>0.1936522064676667</v>
       </c>
       <c r="R23">
-        <v>8.550315197143</v>
+        <v>1.742869858209</v>
       </c>
       <c r="S23">
-        <v>0.001223031871734423</v>
+        <v>0.000363008076354979</v>
       </c>
       <c r="T23">
-        <v>0.001223031871734422</v>
+        <v>0.000363008076354979</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H24">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I24">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J24">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N24">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O24">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P24">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q24">
-        <v>1.122821417157667</v>
+        <v>0.4258620685386668</v>
       </c>
       <c r="R24">
-        <v>10.105392754419</v>
+        <v>3.832758616848001</v>
       </c>
       <c r="S24">
-        <v>0.001445469217225845</v>
+        <v>0.0007982938749452624</v>
       </c>
       <c r="T24">
-        <v>0.001445469217225845</v>
+        <v>0.0007982938749452624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H25">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I25">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J25">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N25">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O25">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P25">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q25">
-        <v>0.4977945784042223</v>
+        <v>0.151431295118</v>
       </c>
       <c r="R25">
-        <v>4.480151205638</v>
+        <v>1.362881656062</v>
       </c>
       <c r="S25">
-        <v>0.000640838096414919</v>
+        <v>0.0002838634485164338</v>
       </c>
       <c r="T25">
-        <v>0.0006408380964149189</v>
+        <v>0.0002838634485164338</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H26">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I26">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J26">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N26">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O26">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P26">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q26">
-        <v>44.82816871666333</v>
+        <v>58.35310717076801</v>
       </c>
       <c r="R26">
-        <v>403.45351844997</v>
+        <v>525.177964536912</v>
       </c>
       <c r="S26">
-        <v>0.05770974524922566</v>
+        <v>0.1093850133173319</v>
       </c>
       <c r="T26">
-        <v>0.05770974524922565</v>
+        <v>0.1093850133173319</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H27">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I27">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J27">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.854032</v>
       </c>
       <c r="O27">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P27">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q27">
-        <v>62.71368677998578</v>
+        <v>36.86940627066311</v>
       </c>
       <c r="R27">
-        <v>564.423181019872</v>
+        <v>331.824656435968</v>
       </c>
       <c r="S27">
-        <v>0.08073474762236718</v>
+        <v>0.06911303770193948</v>
       </c>
       <c r="T27">
-        <v>0.08073474762236717</v>
+        <v>0.06911303770193949</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H28">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I28">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J28">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N28">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O28">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P28">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q28">
-        <v>51.26855315469778</v>
+        <v>16.41291489365689</v>
       </c>
       <c r="R28">
-        <v>461.41697839228</v>
+        <v>147.716234042912</v>
       </c>
       <c r="S28">
-        <v>0.06600080321269514</v>
+        <v>0.03076660354974659</v>
       </c>
       <c r="T28">
-        <v>0.06600080321269514</v>
+        <v>0.03076660354974659</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H29">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I29">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J29">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N29">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O29">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P29">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q29">
-        <v>89.89441272955355</v>
+        <v>29.84456980529955</v>
       </c>
       <c r="R29">
-        <v>809.049714565982</v>
+        <v>268.601128247696</v>
       </c>
       <c r="S29">
-        <v>0.1157259778051764</v>
+        <v>0.05594472726275164</v>
       </c>
       <c r="T29">
-        <v>0.1157259778051764</v>
+        <v>0.05594472726275164</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H30">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I30">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J30">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N30">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O30">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P30">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q30">
-        <v>106.2438431934673</v>
+        <v>65.63142482992356</v>
       </c>
       <c r="R30">
-        <v>956.1945887412061</v>
+        <v>590.6828234693121</v>
       </c>
       <c r="S30">
-        <v>0.1367734908768329</v>
+        <v>0.1230284834370058</v>
       </c>
       <c r="T30">
-        <v>0.1367734908768329</v>
+        <v>0.1230284834370058</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H31">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I31">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J31">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N31">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O31">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P31">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q31">
-        <v>47.10242280951244</v>
+        <v>23.33772457485867</v>
       </c>
       <c r="R31">
-        <v>423.921805285612</v>
+        <v>210.039521173728</v>
       </c>
       <c r="S31">
-        <v>0.06063751651643659</v>
+        <v>0.0437474101584082</v>
       </c>
       <c r="T31">
-        <v>0.06063751651643658</v>
+        <v>0.0437474101584082</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H32">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I32">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J32">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N32">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O32">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P32">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q32">
-        <v>2.235242672161667</v>
+        <v>6.813500463677001</v>
       </c>
       <c r="R32">
-        <v>20.117184049455</v>
+        <v>61.321504173093</v>
       </c>
       <c r="S32">
-        <v>0.002877549738780621</v>
+        <v>0.01277215344807399</v>
       </c>
       <c r="T32">
-        <v>0.002877549738780621</v>
+        <v>0.01277215344807399</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H33">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I33">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J33">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.854032</v>
       </c>
       <c r="O33">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P33">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q33">
-        <v>3.127058562334222</v>
+        <v>4.304992979816889</v>
       </c>
       <c r="R33">
-        <v>28.143527061008</v>
+        <v>38.744936818352</v>
       </c>
       <c r="S33">
-        <v>0.004025632948611557</v>
+        <v>0.008069865295265528</v>
       </c>
       <c r="T33">
-        <v>0.004025632948611557</v>
+        <v>0.008069865295265528</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H34">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I34">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J34">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N34">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O34">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P34">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q34">
-        <v>2.556376069602222</v>
+        <v>1.916425853913111</v>
       </c>
       <c r="R34">
-        <v>23.00738462642</v>
+        <v>17.247832685218</v>
       </c>
       <c r="S34">
-        <v>0.003290962266837426</v>
+        <v>0.003592409688459198</v>
       </c>
       <c r="T34">
-        <v>0.003290962266837426</v>
+        <v>0.003592409688459197</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H35">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I35">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J35">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N35">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O35">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P35">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q35">
-        <v>4.482356363741443</v>
+        <v>3.484749999885445</v>
       </c>
       <c r="R35">
-        <v>40.34120727367299</v>
+        <v>31.362749998969</v>
       </c>
       <c r="S35">
-        <v>0.00577038168796778</v>
+        <v>0.006532290114895434</v>
       </c>
       <c r="T35">
-        <v>0.005770381687967779</v>
+        <v>0.006532290114895433</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H36">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I36">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J36">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N36">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O36">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P36">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q36">
-        <v>5.297579150767667</v>
+        <v>7.663340740396446</v>
       </c>
       <c r="R36">
-        <v>47.678212356909</v>
+        <v>68.97006666356801</v>
       </c>
       <c r="S36">
-        <v>0.006819862420897188</v>
+        <v>0.01436520983347809</v>
       </c>
       <c r="T36">
-        <v>0.006819862420897188</v>
+        <v>0.01436520983347809</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H37">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I37">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J37">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N37">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O37">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P37">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q37">
-        <v>2.348642570957555</v>
+        <v>2.724989377971333</v>
       </c>
       <c r="R37">
-        <v>21.137783138618</v>
+        <v>24.524904401742</v>
       </c>
       <c r="S37">
-        <v>0.0030235356101233</v>
+        <v>0.00510809130568975</v>
       </c>
       <c r="T37">
-        <v>0.0030235356101233</v>
+        <v>0.00510809130568975</v>
       </c>
     </row>
   </sheetData>
